--- a/data/evaluation/evaluation_North_Spring_Onions.xlsx
+++ b/data/evaluation/evaluation_North_Spring_Onions.xlsx
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4923.282076719577</v>
+        <v>4641.61541005291</v>
       </c>
       <c r="C3" t="n">
-        <v>44622307.60951671</v>
+        <v>43527563.16507227</v>
       </c>
       <c r="D3" t="n">
-        <v>6679.993084541084</v>
+        <v>6597.542206388093</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1203834257844463</v>
+        <v>0.1419635593420923</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>5798.876431693307</v>
+        <v>5591.985997997101</v>
       </c>
       <c r="C4" t="n">
-        <v>59921331.11873032</v>
+        <v>55368155.38871618</v>
       </c>
       <c r="D4" t="n">
-        <v>7740.886972352091</v>
+        <v>7440.97812042988</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.1811983473004495</v>
+        <v>-0.09144393853064692</v>
       </c>
     </row>
     <row r="5">
